--- a/datos/mne_ne.xlsx
+++ b/datos/mne_ne.xlsx
@@ -16,13 +16,13 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Proteina(g)</t>
-  </si>
-  <si>
-    <t>Lipidos(g)</t>
-  </si>
-  <si>
-    <t>Carbohidratos(g)</t>
+    <t>Proteina</t>
+  </si>
+  <si>
+    <t>Lipidos</t>
+  </si>
+  <si>
+    <t>Carbohidratos</t>
   </si>
   <si>
     <t>6</t>
